--- a/biology/Zoologie/Cistina_columbiae/Cistina_columbiae.xlsx
+++ b/biology/Zoologie/Cistina_columbiae/Cistina_columbiae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Étoile de mer marbrée
 Cistina columbiae est une espèce d'étoiles de mer de la famille des Ophidiasteridae, la seule du genre Cistina.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une petite étoile de mer régulière à 5 bras allongés rayonnant autour d'un disque central réduit, de couleur rouge brique plus ou moins maculée de gris. Les bras sont en partie recouverts de petites pointes alignées[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une petite étoile de mer régulière à 5 bras allongés rayonnant autour d'un disque central réduit, de couleur rouge brique plus ou moins maculée de gris. Les bras sont en partie recouverts de petites pointes alignées.
 			Cistina columbiae à La Réunion.
 			En Australie.
 			Disque central.
@@ -547,9 +561,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’étoile de mer marbrée est présente dans les eaux tropicales de l'Indo-Pacifique[3], principalement dans l'océan Indien central, entre la surface et 15 m de profondeur[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’étoile de mer marbrée est présente dans les eaux tropicales de l'Indo-Pacifique, principalement dans l'océan Indien central, entre la surface et 15 m de profondeur.
 </t>
         </is>
       </c>
